--- a/biology/Botanique/Elatinaceae/Elatinaceae.xlsx
+++ b/biology/Botanique/Elatinaceae/Elatinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Elatinaceae (les Élatinacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales. Elle comprend 40 espèces réparties en 2 genres.
 Ce sont des arbustes ou des plantes herbacées. Le genre Elatine comprend des espèces herbacées, pouvant être submergées, des rives lacustres des zones tempérées.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Elatine, forme féminine du grec ελατινος / elatinos, sapin, probablement d'origine arménienne (elevin). Le mot a été utilisé par Pline pour une espèce de muflier (peut-être l'actuel Kickxia elatine (Plantaginaceae)[1]. Le nom d'un arbre aurait été appliqué à une herbe en raison de la ressemblance des feuilles de celle-ci à celui-là[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Elatine, forme féminine du grec ελατινος / elatinos, sapin, probablement d'origine arménienne (elevin). Le mot a été utilisé par Pline pour une espèce de muflier (peut-être l'actuel Kickxia elatine (Plantaginaceae). Le nom d'un arbre aurait été appliqué à une herbe en raison de la ressemblance des feuilles de celle-ci à celui-là.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[3] et la classification phylogénétique APG III (2009)[4] placent cette famille dans l'ordre des Malpighiales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) placent cette famille dans l'ordre des Malpighiales.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (23 mai 2010)[5], NCBI  (23 mai 2010)[6], DELTA Angio           (23 mai 2010)[7] et ITIS      (23 mai 2010)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (23 mai 2010), NCBI  (23 mai 2010), DELTA Angio           (23 mai 2010) et ITIS      (23 mai 2010) :
 genre Bergia (en) L.
 genre Elatine L.</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 mai 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 mai 2010) :
 genre Bergia
 Bergia ammannioides
 Bergia glomerata
